--- a/biology/Médecine/Walter_Vogt/Walter_Vogt.xlsx
+++ b/biology/Médecine/Walter_Vogt/Walter_Vogt.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Walter Vogt, né le 31 juillet 1927 à Zurich et mort le 21 septembre 1988 à Muri bei Bern, est un écrivain et psychiatre suisse.
 </t>
@@ -511,7 +523,9 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Après ses études de médecine à l'Université de Zurich qu'il acheva en 1956, Walter Vogt travailla pendant des années comme radiologue dans un hôpital de la ville de Berne. À la fin des années 1960 il suivit une formation de psychiatre. Ensuite il ouvrit un cabinet à Muri bei Bern où il pratiqua jusqu'à sa mort. Marié et père de trois enfants, Vogt mourut d'une insuffisance cardiaque.
 Walter Vogt commença à écrire en 1961 à la suite d'une longue maladie. Ses premiers textes publiés en revue datent de 1963 et son premier livre publié, le recueil de nouvelles Husten, date de 1965. Son premier roman Wüthrich (1966), une satire grinçante et amère sur la médecine et sur le milieu hospitalier, lui valut un succès de scandale. Il en fut de même pour sa première pièce de théâtre Höhenluft créée la même année.
@@ -545,7 +559,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Husten. Wahrscheinliche und unwahrscheinliche Geschichten, nouvelles, Diogenes Verlag, Zurich 1965
 Wüthrich. Selbstgespräch eines sterbenden Arztes, roman, Diogenes, Zurich 1966
@@ -570,9 +586,43 @@
 Maskenzwang, nouvelles, Benziger Verlag, Zurich 1985
 Du bist dein Weg. méditations, Silberschnur, Melsbach 1986
 Der Garten der Frau des Mannes der Noah hieß. Choix de nouvelles 1965–1987. Préface de Kurt Marti, Benziger Verlag, Zurich 1987
-Spiegelungen. Nouvelles. Insel Verlag (IB 1096), Francfort-sur-le-Main/Leipzig 1991
-Théâtre
-Aimez-vous Gotthelf, Berne 1966
+Spiegelungen. Nouvelles. Insel Verlag (IB 1096), Francfort-sur-le-Main/Leipzig 1991</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Walter_Vogt</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walter_Vogt</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Théâtre</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Aimez-vous Gotthelf, Berne 1966
 Höhenluft, Theater am Neumarkt Zürich 1966
 Die Königin des Emmentals, Zurich 1967
 Der große Traum der Dame von Pioch-Badet, Zurich 1968
@@ -581,9 +631,43 @@
 Typhos, Berne 1973
 Die Betroffenen, Theater am Neumarkt Zurich 1988
 Pilatus und andere Masken, Wabern bei Bern 1992
-Der Anruf, Theater am Neumarkt Zurich 1993
-Pièces radiophoniques/Pièces télévisées
-Vier Dialoge. Schweizer Radio DRS 2, 1969
+Der Anruf, Theater am Neumarkt Zurich 1993</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Walter_Vogt</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walter_Vogt</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Pièces radiophoniques/Pièces télévisées</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Vier Dialoge. Schweizer Radio DRS 2, 1969
 Spiele der Macht avec René Deltgen et Heinrich Gretler, mise en scène : Josef Scheidegger. Schweizer Fernsehen, 1970
 Inquisition. Schweizer Radio DRS 2, 1972
 Weihnachten im Herz. Schweizer Radio DRS, 1972
@@ -594,8 +678,43 @@
 Jesaia. Pièce parlée. Schweizer Radio DRS 2, 1981
 Die Betroffenen. Sender Freies Berlin, 1991
 La plupart des ouvrages de Walter Vogt ont fait l'objet d'une réédition en dix volumes entre 1991 et 1997 chez Nagel &amp; Kimche Verlag, Zurich/Frauenfeld.
-Traductions en français
-Le Congrès de Wiesbaden, roman, traduction par Olivier Pavillon, Bertil Galland, Lausanne 1977 et Éditions L'Âge d'Homme, Poche Suisse 1988
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Walter_Vogt</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Walter_Vogt</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Œuvres</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Traductions en français</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Le Congrès de Wiesbaden, roman, traduction par Olivier Pavillon, Bertil Galland, Lausanne 1977 et Éditions L'Âge d'Homme, Poche Suisse 1988
 Immortel Wüthrich, roman, traduction par François Conod, Bernard Campiche Éditeur, 1994, et camPoche 2010
 L'Oiseau sur la table, roman, traduction par François Conod, Bernard Campiche Éditeur, 1995
 Boom, nouvelles, traduction par François Conod, Bernard Campiche Éditeur, 1998
@@ -605,31 +724,33 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
         <is>
           <t>Walter_Vogt</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C8" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D8" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Walter_Vogt</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E8" t="inlineStr">
         <is>
           <t>Distinctions et prix</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F8" t="inlineStr"/>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
         <is>
           <t>1973 und 1985 Prix littéraire de la Ville de Berne
 1980 Prix du livre de la Ville de Berne
